--- a/testProject/TestClient-master/checkTest/src/assets/example.xlsx
+++ b/testProject/TestClient-master/checkTest/src/assets/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST_IT\TestServer\testProject\TestClient-master\checkTest\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4266CDC1-B58C-4CAC-BA11-1D10DAEBBC63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD51EE4F-9A82-418A-8EEC-2721F7DA4384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="4440" xr2:uid="{69D841D5-B233-402D-8B05-27FD8E02D640}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>tz</t>
   </si>
   <si>
-    <t>password</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
